--- a/regionseng/2/business sector/by ownership.xlsx
+++ b/regionseng/2/business sector/by ownership.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E416888C-30E2-4600-BD9A-953766757D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-15" yWindow="315" windowWidth="14790" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#.0;\-#.0;\-"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -201,7 +202,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -292,6 +293,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -327,6 +345,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -502,11 +537,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -516,17 +551,17 @@
     <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="4">
         <v>2006</v>
@@ -573,8 +608,14 @@
       <c r="P5" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q5" s="6">
+        <v>2021</v>
+      </c>
+      <c r="R5" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -623,8 +664,14 @@
       <c r="P6" s="10">
         <v>3383.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q6" s="10">
+        <v>3627.271135844755</v>
+      </c>
+      <c r="R6" s="10">
+        <v>3975.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -673,8 +720,14 @@
       <c r="P7" s="11">
         <v>2289.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q7" s="11">
+        <v>2474.3774460603772</v>
+      </c>
+      <c r="R7" s="11">
+        <v>2959.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -723,8 +776,14 @@
       <c r="P8" s="11">
         <v>1080.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q8" s="11">
+        <v>1144.5093844032417</v>
+      </c>
+      <c r="R8" s="11">
+        <v>1009.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -773,13 +832,19 @@
       <c r="P9" s="11">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q9" s="11">
+        <v>8.3843053811366008</v>
+      </c>
+      <c r="R9" s="11">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="4">
         <v>2006</v>
@@ -826,8 +891,14 @@
       <c r="P13" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q13" s="6">
+        <v>2021</v>
+      </c>
+      <c r="R13" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
@@ -876,8 +947,14 @@
       <c r="P14" s="10">
         <v>2273.3000000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q14" s="10">
+        <v>2301.3373617799998</v>
+      </c>
+      <c r="R14" s="10">
+        <v>2583.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -926,8 +1003,14 @@
       <c r="P15" s="11">
         <v>1363.9</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q15" s="11">
+        <v>1395.2349083669999</v>
+      </c>
+      <c r="R15" s="11">
+        <v>1812.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
@@ -976,9 +1059,14 @@
       <c r="P16" s="11">
         <v>894</v>
       </c>
-      <c r="Q16" s="8"/>
-    </row>
-    <row r="17" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q16" s="11">
+        <v>893.3042014780001</v>
+      </c>
+      <c r="R16" s="11">
+        <v>759.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
@@ -1027,18 +1115,23 @@
       <c r="P17" s="11">
         <v>15.4</v>
       </c>
-      <c r="Q17" s="8"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q17" s="11">
+        <v>12.798251935</v>
+      </c>
+      <c r="R17" s="11">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="4">
         <v>2006</v>
@@ -1085,8 +1178,14 @@
       <c r="P21" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q21" s="6">
+        <v>2021</v>
+      </c>
+      <c r="R21" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>5</v>
       </c>
@@ -1135,8 +1234,14 @@
       <c r="P22" s="12">
         <v>26994.6</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q22" s="12">
+        <v>28380.334393285</v>
+      </c>
+      <c r="R22" s="12">
+        <v>29494</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
@@ -1185,8 +1290,14 @@
       <c r="P23" s="13">
         <v>21587.3</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q23" s="13">
+        <v>24035.799669974997</v>
+      </c>
+      <c r="R23" s="13">
+        <v>25802</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>7</v>
       </c>
@@ -1235,8 +1346,14 @@
       <c r="P24" s="13">
         <v>3973.4</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q24" s="13">
+        <v>3677.8945116869995</v>
+      </c>
+      <c r="R24" s="13">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
@@ -1285,13 +1402,19 @@
       <c r="P25" s="13">
         <v>1434</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q25" s="13">
+        <v>666.64021162299991</v>
+      </c>
+      <c r="R25" s="13">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="4">
         <v>2006</v>
@@ -1338,8 +1461,14 @@
       <c r="P29" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q29" s="6">
+        <v>2021</v>
+      </c>
+      <c r="R29" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>5</v>
       </c>
@@ -1388,8 +1517,14 @@
       <c r="P30" s="10">
         <v>1018.7</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q30" s="10">
+        <v>977.5</v>
+      </c>
+      <c r="R30" s="10">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>6</v>
       </c>
@@ -1438,8 +1573,14 @@
       <c r="P31" s="11">
         <v>831.4</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q31" s="11">
+        <v>803.7</v>
+      </c>
+      <c r="R31" s="11">
+        <v>1053.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>7</v>
       </c>
@@ -1488,8 +1629,14 @@
       <c r="P32" s="11">
         <v>1999.3</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q32" s="11">
+        <v>1922.2</v>
+      </c>
+      <c r="R32" s="11">
+        <v>2396.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>8</v>
       </c>
@@ -1537,6 +1684,12 @@
       </c>
       <c r="P33" s="11">
         <v>451.4</v>
+      </c>
+      <c r="Q33" s="11">
+        <v>741.4</v>
+      </c>
+      <c r="R33" s="11">
+        <v>823</v>
       </c>
     </row>
   </sheetData>
